--- a/test_students_import_updated.xlsx
+++ b/test_students_import_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apiitlk-my.sharepoint.com/personal/cb009957_students_apiit_lk/Documents/Projects/ums/university-management-system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{DA158346-8A21-402D-A803-43D55FF5B39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49E5C231-B369-4F7A-ADF9-0512F6155604}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{DA158346-8A21-402D-A803-43D55FF5B39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{589B923D-58EC-4365-9539-4D43EC07E2B5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7A8519C-5311-4E03-99BF-666F1B4FE665}"/>
   </bookViews>
@@ -745,6 +745,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,11 +1071,13 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="7" max="7" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
